--- a/LinguistEvalR2.xlsx
+++ b/LinguistEvalR2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U11186438\Documents\sacj2022-code\ZuluNum2Text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{15E43198-2E20-4619-8432-23290138B798}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3044F375-1702-40C1-B8E2-507C838EA34A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="No agreement marker" sheetId="1" r:id="rId1"/>
@@ -21,42 +21,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Mr. Z Mahlaza</author>
-  </authors>
-  <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Mr. Z Mahlaza:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-TyeA</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
   <si>
     <t>Numeral</t>
   </si>
@@ -238,8 +204,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,19 +339,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1103,12 +1056,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,11 +1533,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Settings!$A$2:$A$4</xm:f>
           </x14:formula1>
@@ -1597,11 +1549,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1965,7 +1917,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Settings!$A$2:$A$4</xm:f>
           </x14:formula1>
@@ -1978,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
